--- a/Data/qly/排行榜.xlsx
+++ b/Data/qly/排行榜.xlsx
@@ -990,7 +990,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
